--- a/corrected_mp_gibbs.xlsx
+++ b/corrected_mp_gibbs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleheen\Desktop\materials_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A3C3D4-C385-43A2-81BC-6E874A620B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21B40E-F5DC-4572-B65A-61784867551A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{62A9D5E7-E1D6-4205-A286-54DF61E9151C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{62A9D5E7-E1D6-4205-A286-54DF61E9151C}"/>
   </bookViews>
   <sheets>
     <sheet name="corrected_mp" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6742" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="576">
   <si>
     <t>Ac2O3</t>
   </si>
@@ -1754,6 +1754,15 @@
   </si>
   <si>
     <t>no_of_oxygen</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
 </sst>
 </file>
@@ -1914,6 +1923,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1931,9 +1943,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,7 +2306,7 @@
       <c r="G1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>552</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2345,7 +2354,7 @@
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2392,7 +2401,7 @@
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2448,7 @@
       <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2486,7 +2495,7 @@
       <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2589,7 @@
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2627,7 +2636,7 @@
       <c r="G8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,7 +2683,7 @@
       <c r="G9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +2730,7 @@
       <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2777,7 @@
       <c r="G11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2824,7 @@
       <c r="G12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
         <v>9</v>
       </c>
@@ -18600,8 +18609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA014D-9203-4DDD-BDFF-294DE1E1EC7A}">
   <dimension ref="A1:AH299"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18623,41 +18632,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="R1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="R1" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="Y1" s="24" t="s">
+      <c r="W1" s="29"/>
+      <c r="Y1" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -18723,11 +18732,11 @@
       <c r="W2" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -18803,10 +18812,10 @@
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="24" t="s">
+      <c r="AA3" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="AB3" s="24"/>
+      <c r="AB3" s="25"/>
       <c r="AC3" s="16"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -18975,7 +18984,7 @@
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="24" t="s">
         <v>557</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -19081,7 +19090,7 @@
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="Y6" s="23"/>
+      <c r="Y6" s="24"/>
       <c r="Z6" s="3" t="s">
         <v>2</v>
       </c>
@@ -19362,6 +19371,13 @@
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
+      <c r="Z9" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA9" s="6">
+        <f>(AA5+AB6)/AC7</f>
+        <v>0.87209302325581395</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -19435,6 +19451,13 @@
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
+      <c r="Z10" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA10" s="6">
+        <f>AA5/(AA5+AA6)</f>
+        <v>0.59090909090909094</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -19507,6 +19530,13 @@
       <c r="W11" s="6" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>AA5/(AA5+AB5)</f>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -44339,7 +44369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA64CE0-A7A2-4D51-970B-E01A06814508}">
   <dimension ref="A1:O298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -44434,7 +44464,7 @@
         <f>I2/$C$2</f>
         <v>-4.1276333309965709</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="23">
         <v>-4.9287000000000001</v>
       </c>
       <c r="L2" s="3">
@@ -54973,21 +55003,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5CF921B344989488BB32C9AEA324BA1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f4d65493e6d799ced1ed73a1f3a0cb5d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1a347e73-41d9-4275-b30f-86b760f2c727" xmlns:ns4="df1e0d6d-ea0d-46a6-8aa8-086c8a91b3f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8feac878ead91ca2d030541a0882ccfc" ns3:_="" ns4:_="">
     <xsd:import namespace="1a347e73-41d9-4275-b30f-86b760f2c727"/>
@@ -55210,32 +55225,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF6FFE9-B39C-44DD-864D-29D2632A9169}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df1e0d6d-ea0d-46a6-8aa8-086c8a91b3f3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1a347e73-41d9-4275-b30f-86b760f2c727"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74380E7F-5FD6-4BD3-A536-4831F986F44A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F10AFFB-ED92-479B-A98B-6B1DB3E65206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55252,4 +55257,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74380E7F-5FD6-4BD3-A536-4831F986F44A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF6FFE9-B39C-44DD-864D-29D2632A9169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df1e0d6d-ea0d-46a6-8aa8-086c8a91b3f3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1a347e73-41d9-4275-b30f-86b760f2c727"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/corrected_mp_gibbs.xlsx
+++ b/corrected_mp_gibbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleheen\Desktop\materials_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21B40E-F5DC-4572-B65A-61784867551A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F3D05-2F5E-4A01-BB7A-5C836AB8007D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{62A9D5E7-E1D6-4205-A286-54DF61E9151C}"/>
   </bookViews>
@@ -18609,8 +18609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA014D-9203-4DDD-BDFF-294DE1E1EC7A}">
   <dimension ref="A1:AH299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
